--- a/biology/Zoologie/Grue_à_cou_blanc/Grue_à_cou_blanc.xlsx
+++ b/biology/Zoologie/Grue_à_cou_blanc/Grue_à_cou_blanc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Grue_%C3%A0_cou_blanc</t>
+          <t>Grue_à_cou_blanc</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Antigone vipio
 La Grue à cou blanc (Antigone vipio) est une espèce d'oiseaux de la famille des Gruidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Grue_%C3%A0_cou_blanc</t>
+          <t>Grue_à_cou_blanc</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa trachée forme des circonvolutions qui lui permettent de crier extrêmement fort. Elle mesure de 120 à 135 cm de long et son envergure est de 205 à 238 cm. Elle pèse 4,8 à 7,1 kg.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Grue_%C3%A0_cou_blanc</t>
+          <t>Grue_à_cou_blanc</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle vit en Manchourie et le sud de la Sibérie ; elle hiverne dans l'est de la Chine et la péninsule coréenne.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Grue_%C3%A0_cou_blanc</t>
+          <t>Grue_à_cou_blanc</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle possède la particularité d'arriver très tôt sur son lieu de nidification, dès la fin mars. Bien que ce soit le début du printemps, la neige y est encore abondante et la température peut descendre jusqu’à -20 °C. Elle mue à peu près une fois par an et change alors tout son plumage entre juillet et octobre. À cette période elle est incapable de voler.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Grue_%C3%A0_cou_blanc</t>
+          <t>Grue_à_cou_blanc</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Longévité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle possède une durée de vie d'une quarantaine d'années.
 </t>
